--- a/medicine/Enfance/Philippe_Nessmann/Philippe_Nessmann.xlsx
+++ b/medicine/Enfance/Philippe_Nessmann/Philippe_Nessmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Nessmann, né le 22 juin 1967 à Saint-Dié-des-Vosges (Vosges), est un auteur français de romans, d’albums et de livres documentaires pour la jeunesse. 
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ingénieur de l’École nationale supérieure d'arts et métiers et titulaire d'une maîtrise d'histoire de l'art[1], il commence à écrire à la fin des années 1990 en collaborant aux revues scientifiques Science et Vie Junior, Ciel et Espace et Le Journal du CNRS[2].
-Depuis 2000, il a écrit une cinquantaine de livres documentaires, de romans et d'albums à destination de la jeunesse. Ses thèmes de prédilection sont les sciences, l'art et l'Histoire. De 2001 à 2009, il dirige la collection de vulgarisation scientifique "Kézako ?" pour les éditions Mango et, de 2005 à 2012, la collection de romans historiques "Les Découvreurs du Monde" pour les éditions Flammarion Jeunesse[3].
-Il a obtenu le prix NRP de littérature jeunesse 2010[4] et le prix Saint-Exupéry 2011[5] pour Au Pays des Indiens, la découverte du Far West,
-En 2016, il obtient le prix Historia[6] pour son roman La Fée de Verdun, qui raconte l'histoire vraie de Nelly Martyl, une cantatrice de la Belle Époque devenue infirmière pendant la Première Guerre mondiale[7],[8]. Pour être venue au secours des poilus, notamment lors de la Bataille de Verdun et au Chemin des Dames, elle a été promue sergent honoraire et décorée de la Croix de Guerre puis de la Légion d'Honneur. Très célèbre au début du XXe siècle pour ses qualités de soprano à l'Opéra Comique puis pour son courage d'infirmière, elle est peu à peu tombée dans l'oubli. La Fée de Verdun raconte l'enquête que mène l'auteur à la recherche des traces laissées par Nelly Martyl, à la Bibliothèque nationale de France ou encore aux archives du Val de Grâce, dans le but de la faire sortir de l'oubli. L'ouvrage fait partie de la liste "Littérature pour les collégiens" établie par l’Éducation nationale[9].
-En 2020, il est récompensé par le Prix Sorcières[10] dans la Catégorie Carrément Sorcières non-fiction, pour l'ouvrage documentaire Dans tous les sens, illustré par Régis Lejonc et Célestin.
-En 2022, son roman Une fille en or, qui raconte l'histoire de la sprinteuse américaine Betty Robinson, première championne olympique du 100 mètres en 1928 à Amsterdam, reçoit le Prix du Roman Historique Jeunesse des Rendez-Vous de l'Histoire de Blois, catégorie 5e/4e[11]. L'année suivante, il reçoit le même prix dans la même catégorie pour le roman Champollion et les trésors d'Égypte[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ingénieur de l’École nationale supérieure d'arts et métiers et titulaire d'une maîtrise d'histoire de l'art, il commence à écrire à la fin des années 1990 en collaborant aux revues scientifiques Science et Vie Junior, Ciel et Espace et Le Journal du CNRS.
+Depuis 2000, il a écrit une cinquantaine de livres documentaires, de romans et d'albums à destination de la jeunesse. Ses thèmes de prédilection sont les sciences, l'art et l'Histoire. De 2001 à 2009, il dirige la collection de vulgarisation scientifique "Kézako ?" pour les éditions Mango et, de 2005 à 2012, la collection de romans historiques "Les Découvreurs du Monde" pour les éditions Flammarion Jeunesse.
+Il a obtenu le prix NRP de littérature jeunesse 2010 et le prix Saint-Exupéry 2011 pour Au Pays des Indiens, la découverte du Far West,
+En 2016, il obtient le prix Historia pour son roman La Fée de Verdun, qui raconte l'histoire vraie de Nelly Martyl, une cantatrice de la Belle Époque devenue infirmière pendant la Première Guerre mondiale,. Pour être venue au secours des poilus, notamment lors de la Bataille de Verdun et au Chemin des Dames, elle a été promue sergent honoraire et décorée de la Croix de Guerre puis de la Légion d'Honneur. Très célèbre au début du XXe siècle pour ses qualités de soprano à l'Opéra Comique puis pour son courage d'infirmière, elle est peu à peu tombée dans l'oubli. La Fée de Verdun raconte l'enquête que mène l'auteur à la recherche des traces laissées par Nelly Martyl, à la Bibliothèque nationale de France ou encore aux archives du Val de Grâce, dans le but de la faire sortir de l'oubli. L'ouvrage fait partie de la liste "Littérature pour les collégiens" établie par l’Éducation nationale.
+En 2020, il est récompensé par le Prix Sorcières dans la Catégorie Carrément Sorcières non-fiction, pour l'ouvrage documentaire Dans tous les sens, illustré par Régis Lejonc et Célestin.
+En 2022, son roman Une fille en or, qui raconte l'histoire de la sprinteuse américaine Betty Robinson, première championne olympique du 100 mètres en 1928 à Amsterdam, reçoit le Prix du Roman Historique Jeunesse des Rendez-Vous de l'Histoire de Blois, catégorie 5e/4e. L'année suivante, il reçoit le même prix dans la même catégorie pour le roman Champollion et les trésors d'Égypte.
 </t>
         </is>
       </c>
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Années 2000
-Matière, énergie, son et lumière, Hatier, 2000
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Matière, énergie, son et lumière, Hatier, 2000
 Découvertes et inventions, Hatier, 2000
 Le monde des codes secrets, illustrations d'Emmanuel Cerisier, 2001 ; réédité sous le titre Codes secrets, à toi de les déchiffrer, illustrations de Thomas Tessier, 2018
 L'Air, illustrations de Peter Allen, collection "Kezako ?", Mango, 2002
@@ -575,9 +594,43 @@
 A l'assaut du ciel, la légende de l'Aéropostale, collection "Découvreurs du Monde", Flammarion Jeunesse, 2008 ; réédité sous le titre Les Exploits de l'Aéropostale, 2013
 Les Pirates, illustrations d'Escletxa, Auzou, 2009
 L'Ecriture, illustrations de Patrick Chenot, collection "Kezako ?", Mango, 2009
-Ceux qui rêvaient de la Lune, mission Apollo, collection "Découvreurs du Monde", Flammarion Jeunesse, 2009
-Années 2010
-Au pays des Indiens, la découverte du Far West, collection "Découvreurs du Monde", Flammarion Jeunesse, 2010
+Ceux qui rêvaient de la Lune, mission Apollo, collection "Découvreurs du Monde", Flammarion Jeunesse, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Philippe_Nessmann</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Nessmann</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Au pays des Indiens, la découverte du Far West, collection "Découvreurs du Monde", Flammarion Jeunesse, 2010
 Le Livre de tous les jumeaux, illustrations de Bruno Gibert, Le Baron Perché, 2010
 Un monde en couleurs, Gallimard Jeunesse, 2011
 Le Voyage de Marco Polo, collection "Découvreurs du Monde", Flammarion Jeunesse, 2011
@@ -594,9 +647,43 @@
 Mission Mars, collection "Le Docu dont tu es le héros", Fleurus, 2017
 Eternité, demain tous immortels ?, illustrations de Léonard Dupond, La Martinière Jeunesse, 2018
 Dans tous les sens, illustrations de Régis Lejonc et Célestin, Le Seuil Jeunesse, 2019
-Il y avait une maison, illustrations de Camille Nicolazzi, éditions La cabane bleue, 2019
-Années 2020
-Une fille en or, Flammarion Jeunesse, 2021
+Il y avait une maison, illustrations de Camille Nicolazzi, éditions La cabane bleue, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Philippe_Nessmann</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Nessmann</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Années 2020</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Une fille en or, Flammarion Jeunesse, 2021
 Phénoménal, la nature spectaculaire, illustrations de Alex Asfour, éditions Milan, 2021
 Champollion et les trésors d'Egypte, Flammarion Jeunesse, 2022
 L'Art en 36 chiffres fous, Palette..., 2022
@@ -607,49 +694,51 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Philippe_Nessmann</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Philippe_Nessmann</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2006 : sélection The White Ravens pour Au péril de nos vies, la conquête du pôle[13]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2006 : sélection The White Ravens pour Au péril de nos vies, la conquête du pôle
 2010 : prix Crock'livre de la ville de Fresnes pour À l'assaut du ciel, la légende de l'Aéropostale
 2010 : prix Saint-Exupéry pour Au pays des Indiens, la découverte du Far West
 2011 : Prix NRP de littérature jeunesse pour Au pays des Indiens, la découverte du Far West
-2013 : prix Azimut pour À l'assaut du ciel, la légende de l'Aéropostale[14]
+2013 : prix Azimut pour À l'assaut du ciel, la légende de l'Aéropostale
 2016 : prix Historia du livre jeunesse pour La Fée de Verdun
-2017 : prix Réal dans la catégorie 11-14 ans pour La Fée de Verdun[15]
-2018 : prix Renard'eau pour Le Village aux mille roses[16]
-2018 : prix PEP42 ASSE Cœur Vert pour Le Village aux mille roses[17]
-2019 : sélection The White Ravens pour Éternité, demain tous éternels ?[18]
-2020 : prix La Science se livre catégorie Adolescents pour Eternité, demain tous immortels ?[19]
-2020 : prix Sorcières 2020, catégorie Carrément Sorcières Non-Fiction, pour Dans tous les sens[10], illustrations de Régis Lejonc et Célestin
-2022 : prix Livre Franche des collégiens et prix spécial du jury pour Une fille en or[20]
-2022 : prix du Roman Historique Jeunesse des Rendez-Vous de l'Histoire de Blois catégorie 5e/4e pour Une fille en or[11]
-2023 : prix des Dévoreurs de Livres catégorie 4e pour Une fille en or[21]
-2023 : prix du Roman Historique Jeunesse des Rendez-Vous de l'Histoire de Blois catégorie 5e/4e pour Champollion et les trésors d'Égypte[12]
-2023 : prix Golden Pear award 2023 for best translated non-fiction book in Slovenia for younger readers, pour Dans tous les sens[22].</t>
+2017 : prix Réal dans la catégorie 11-14 ans pour La Fée de Verdun
+2018 : prix Renard'eau pour Le Village aux mille roses
+2018 : prix PEP42 ASSE Cœur Vert pour Le Village aux mille roses
+2019 : sélection The White Ravens pour Éternité, demain tous éternels ?
+2020 : prix La Science se livre catégorie Adolescents pour Eternité, demain tous immortels ?
+2020 : prix Sorcières 2020, catégorie Carrément Sorcières Non-Fiction, pour Dans tous les sens, illustrations de Régis Lejonc et Célestin
+2022 : prix Livre Franche des collégiens et prix spécial du jury pour Une fille en or
+2022 : prix du Roman Historique Jeunesse des Rendez-Vous de l'Histoire de Blois catégorie 5e/4e pour Une fille en or
+2023 : prix des Dévoreurs de Livres catégorie 4e pour Une fille en or
+2023 : prix du Roman Historique Jeunesse des Rendez-Vous de l'Histoire de Blois catégorie 5e/4e pour Champollion et les trésors d'Égypte
+2023 : prix Golden Pear award 2023 for best translated non-fiction book in Slovenia for younger readers, pour Dans tous les sens.</t>
         </is>
       </c>
     </row>
